--- a/biology/Médecine/Éléments_de_physiologie/Éléments_de_physiologie.xlsx
+++ b/biology/Médecine/Éléments_de_physiologie/Éléments_de_physiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_de_physiologie</t>
+          <t>Éléments_de_physiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Éléments de physiologie sont un ensemble de notes prises par Denis Diderot à partir de 1774, en vue d'écrire un ouvrage qui ne verra pas le jour. Le corpus en l'état est publié en 1875.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_de_physiologie</t>
+          <t>Éléments_de_physiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du texte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Probablement dès sa participation à la traduction en 1746-1748 du Dictionnaire de médecine de Robert James, Diderot s'est intéressé au fonctionnement du corps humain, des ressorts de la vie et des conséquences philosophiques, matérialistes et éthiques qu'il pouvait en tirer : il fréquente les chimistes, comme Venel, assiste aux débats entre les médecins qui collaborent à l’Encyclopédie (Théophile de Bordeu, Pierre Tarin, Ménuret de Chambaud...), suit des cours de sciences - le cours de chimie de Rouelle -, multiplie les lectures, Maupertuis, Leibniz, par exemple. Le Rêve de D'Alembert rédigé en 1769 constitue en ce sens une première synthèse de ce bagage intellectuel.
 Un volume de notes conservé parmi ses manuscrits à la bibliothèque de l’Ermitage à Saint-Pétersbourg porte le titre d’Éléments de physiologie montre que son intérêt n'est pas éteint. Jean Assézat, premier éditeur du texte, en 1875, considère qu’elles ont été simplement accumulées, à partir du séjour de Diderot en Hollande (1773-1774) et pratiquement jusqu'à sa mort de l'écrivain. Pour les commentateurs ultérieurs, Jean Mayer et Paolo Quintili, les Éléments sont « un ouvrage projeté et presque achevé, qui représente le testament spirituel du philosophe ».
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ments_de_physiologie</t>
+          <t>Éléments_de_physiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Œuvres complètes de Diderot, édition établie par J. Assézat et M. Tourneux, t. IX, Paris, Garnier, 1875, p. 236-430 (lire sur Wikisource).
 Diderot, Éléments de physiologie, édition critique, avec une introduction et des notes par J. Mayer, Paris, Didier, 1964.
